--- a/FishLandings/household groups/statistics/Length (cm)_output.xlsx
+++ b/FishLandings/household groups/statistics/Length (cm)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>22869.23127</v>
+        <v>30182.924133</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>474.965166</v>
+        <v>786.054624</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1325.836395</v>
+        <v>1782.920878</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13.767977</v>
+        <v>23.216326</v>
       </c>
       <c r="E3">
-        <v>2e-06</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>10737.28968</v>
+        <v>12748.135444</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-2.64401</v>
+        <v>-1.97382</v>
       </c>
       <c r="H5">
-        <v>-5.674508</v>
+        <v>-4.220485</v>
       </c>
       <c r="I5">
-        <v>0.386488</v>
+        <v>0.272845</v>
       </c>
       <c r="J5">
-        <v>0.100959</v>
+        <v>0.09804599999999999</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>2.820979</v>
+        <v>3.159976</v>
       </c>
       <c r="H6">
-        <v>-0.442226</v>
+        <v>0.800216</v>
       </c>
       <c r="I6">
-        <v>6.084184</v>
+        <v>5.519736</v>
       </c>
       <c r="J6">
-        <v>0.10519</v>
+        <v>0.00501</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>5.464989</v>
+        <v>5.133796</v>
       </c>
       <c r="H7">
-        <v>2.997972</v>
+        <v>3.359414</v>
       </c>
       <c r="I7">
-        <v>7.932006</v>
+        <v>6.908178</v>
       </c>
       <c r="J7">
-        <v>1e-06</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Length (cm)_output.xlsx
+++ b/FishLandings/household groups/statistics/Length (cm)_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>30182.924133</v>
+        <v>22869.23127</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>786.054624</v>
+        <v>474.965166</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>1782.920878</v>
+        <v>1325.836395</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>23.216326</v>
+        <v>13.767977</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2e-06</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>12748.135444</v>
+        <v>10737.28968</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>-1.97382</v>
+        <v>-2.64401</v>
       </c>
       <c r="H5">
-        <v>-4.220485</v>
+        <v>-5.674508</v>
       </c>
       <c r="I5">
-        <v>0.272845</v>
+        <v>0.386488</v>
       </c>
       <c r="J5">
-        <v>0.09804599999999999</v>
+        <v>0.100959</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>3.159976</v>
+        <v>2.820979</v>
       </c>
       <c r="H6">
-        <v>0.800216</v>
+        <v>-0.442226</v>
       </c>
       <c r="I6">
-        <v>5.519736</v>
+        <v>6.084184</v>
       </c>
       <c r="J6">
-        <v>0.00501</v>
+        <v>0.10519</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>5.133796</v>
+        <v>5.464989</v>
       </c>
       <c r="H7">
-        <v>3.359414</v>
+        <v>2.997972</v>
       </c>
       <c r="I7">
-        <v>6.908178</v>
+        <v>7.932006</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
     </row>
   </sheetData>
